--- a/documentacao/ATA-Projeto 2.0.xlsx
+++ b/documentacao/ATA-Projeto 2.0.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\bandtec\projeto2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Graziela\Projeto 2.0\Projeto2.0\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001A69B8-FAE3-4DED-9E8A-D9F1F1F63D33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>Presentes</t>
   </si>
@@ -87,13 +88,84 @@
   </si>
   <si>
     <t>1 - como será feito o dashboard.                                        2 -  separação das duplas para que cada um faça o seu próprio protótipo de dashboard                                 3 - ensaio de amanhã cancelado por motivos de sobrecarga com conteúdos. Ensaio marcado para domingo dia 22/042020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stefany Batista, Graziela, Gabriel Bezerra, Yuri Vedovate, Bruno Santana, Raphael Moitinho.                                                                                                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Divisão das duplas para completar os entregáveis da sprint 3.                                                                                                                                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorteio do Product Owner (Graziela) e Scrum Master (Yuri).                                                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Pesquisa da ferramenta de helpdesk.                                     2. Discussão sobre qual a melhor ferramenta dentre as opções escolhidas.                                                                                                                  . </t>
+  </si>
+  <si>
+    <t>1. Escolha da ferramenta (TomTicket)</t>
+  </si>
+  <si>
+    <t>1. Reunião feita para os integrantes do grupo estudarem juntos para a prova da Marise sobre a API.</t>
+  </si>
+  <si>
+    <t>1. Continuar estudos sobre a API.</t>
+  </si>
+  <si>
+    <t>1. Estudar o código da API do proejto.                               2. Se preparar para a prova da Marise.                                                             3.Realizar a uma simulação da prova antes da prova oficial.</t>
+  </si>
+  <si>
+    <t>Graziela, Gabriel Bezerra, Yuri Vedovate, Bruno Santana, Raphael Moitinho.</t>
+  </si>
+  <si>
+    <t>Stefany Batista</t>
+  </si>
+  <si>
+    <t>1.Estudar sobre a API do yoshi.                                          2. Avaliar os entregáveis para Sprint 3.
+3.Pensar na implementação das APIs no site do projet	  4.Atualização e implementação do banco de dados.
+5.Fazer a implementação da API do yoshi.</t>
+  </si>
+  <si>
+    <t>1.Discutir sobre os entregáveis da sprint 3. 2.Distribuir os entregáveis pendentes a serem executados</t>
+  </si>
+  <si>
+    <t>1.Resolver alguns problemas do projeto                      2.Dividir os tópicos da apresentação e ensaiá-los</t>
+  </si>
+  <si>
+    <t>1. Fazer ajustes na apresentação.</t>
+  </si>
+  <si>
+    <t>Ensaio da apresentação.</t>
+  </si>
+  <si>
+    <t>Raphael.</t>
+  </si>
+  <si>
+    <t>Stefany Batista, Graziela, Gabriel Bezerra, Yuri Vedovate, Bruno Santana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                       Ensaio da apresentação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuri                                                                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stefany Batista, Graziela, Gabriel Bezerra,  Bruno Santana, Raphael Moitinho.                                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stefany Batista, Gabriel Bezerra, Bruno Santana, Raphael Moitinho.                                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graziela, Yuri                                                                                                                                                                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ensaio da apresentação .</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,8 +213,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +238,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -185,11 +268,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -218,7 +382,61 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -427,6 +645,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -439,13 +664,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -485,18 +703,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A11:F18" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7">
-  <autoFilter ref="A11:F18"/>
-  <sortState ref="A12:F18">
-    <sortCondition ref="D1:D8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A6:F27" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="6">
+  <autoFilter ref="A6:F27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:F13">
+    <sortCondition ref="D1:D3"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="4" name="Data" dataDxfId="5"/>
-    <tableColumn id="6" name="Horário de início" dataDxfId="4"/>
-    <tableColumn id="7" name="Horário de Término" dataDxfId="3"/>
-    <tableColumn id="5" name="Presentes" dataDxfId="2"/>
-    <tableColumn id="3" name="Ausentes" dataDxfId="1"/>
-    <tableColumn id="8" name="Assuntos em pauta" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Data" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Horário de início" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Horário de Término" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Presentes" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ausentes" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Assuntos em pauta" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -764,11 +982,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,189 +998,456 @@
     <col min="6" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>43927</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.79375000000000007</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.81736111111111109</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>43929</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.8125</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>43934</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.78541666666666676</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>43936</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.80069444444444438</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>43927</v>
+        <v>43943</v>
       </c>
       <c r="B12" s="8">
-        <v>0.79375000000000007</v>
+        <v>0.79861111111111116</v>
       </c>
       <c r="C12" s="8">
-        <v>0.81736111111111109</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>0.82916666666666661</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="F12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>43929</v>
+        <v>43976</v>
       </c>
       <c r="B13" s="8">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="C13" s="8">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C13" s="10">
         <v>0.8125</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>43934</v>
-      </c>
-      <c r="B14" s="8">
-        <v>0.78541666666666676</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0.79861111111111116</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>43936</v>
-      </c>
-      <c r="B15" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>43978</v>
+      </c>
+      <c r="B14" s="14">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C15" s="8">
-        <v>0.84652777777777777</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="8">
+      <c r="C14" s="14">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>43983</v>
+      </c>
+      <c r="B15" s="14">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C16" s="8">
-        <v>0.80069444444444438</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>43943</v>
-      </c>
-      <c r="B17" s="8">
-        <v>0.79861111111111116</v>
-      </c>
-      <c r="C17" s="8">
-        <v>0.82916666666666661</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C15" s="14">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>43985</v>
+      </c>
+      <c r="B16" s="14">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>43987</v>
+      </c>
+      <c r="B17" s="14">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>43990</v>
+      </c>
+      <c r="B18" s="14">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>43992</v>
+      </c>
+      <c r="B19" s="14">
+        <v>0.84305555555555556</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0.92499999999999993</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="171" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>43995</v>
+      </c>
+      <c r="B20" s="14">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C20" s="14">
+        <v>0.8125</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>43999</v>
+      </c>
+      <c r="B21" s="14">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>44007</v>
+      </c>
+      <c r="B22" s="14">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>44008</v>
+      </c>
+      <c r="B23" s="14">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C23" s="14">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20">
+        <v>44009</v>
+      </c>
+      <c r="B24" s="14">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0.4375</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="C25" s="19">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="28">
+        <v>44010</v>
+      </c>
+      <c r="B26" s="17">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C26" s="17">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25">
+        <v>44011</v>
+      </c>
+      <c r="B27" s="26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C27" s="26">
+        <v>0.4375</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A7:F10"/>
+    <mergeCell ref="A2:F5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>